--- a/generate_ids/cb_experiment_id.xlsx
+++ b/generate_ids/cb_experiment_id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backups\All Files\Genel\Is\2022\Upwork\LabX\shelf_tracking_algorithm\generate_ids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Backups\All Files\Genel\Is\2022\Upwork\LabX\shelf_tracking_algorithm\Pavlovia-Shelf-Tracker\generate_ids\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64159602-C899-4BAF-B1A5-C5FDF684D358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF4E636-8EAB-4FC0-BBDB-ED61457021E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="2550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="counterbalance_sheet" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="159">
   <si>
     <t>placeholder_id</t>
   </si>
@@ -54,12 +54,18 @@
     <t>passage_cb_indx</t>
   </si>
   <si>
+    <t>spacing_cb_indx</t>
+  </si>
+  <si>
     <t>set_time_cb_indx</t>
   </si>
   <si>
     <t>passage_cb</t>
   </si>
   <si>
+    <t>spacing_cb</t>
+  </si>
+  <si>
     <t>set_time_cb</t>
   </si>
   <si>
@@ -78,52 +84,7 @@
     <t>Person 2 Check</t>
   </si>
   <si>
-    <t>id1</t>
-  </si>
-  <si>
-    <t>id2</t>
-  </si>
-  <si>
-    <t>id3</t>
-  </si>
-  <si>
-    <t>id4</t>
-  </si>
-  <si>
-    <t>id5</t>
-  </si>
-  <si>
-    <t>id6</t>
-  </si>
-  <si>
-    <t>id7</t>
-  </si>
-  <si>
-    <t>id8</t>
-  </si>
-  <si>
-    <t>id9</t>
-  </si>
-  <si>
-    <t>id10</t>
-  </si>
-  <si>
-    <t>id11</t>
-  </si>
-  <si>
-    <t>id12</t>
-  </si>
-  <si>
-    <t>dist001</t>
-  </si>
-  <si>
-    <t>teacher001</t>
-  </si>
-  <si>
-    <t>teacher002</t>
-  </si>
-  <si>
-    <t>pas0</t>
+    <t>spac0</t>
   </si>
   <si>
     <t>settime0</t>
@@ -132,122 +93,431 @@
     <t>settime1</t>
   </si>
   <si>
+    <t>spac1</t>
+  </si>
+  <si>
+    <t>spac2</t>
+  </si>
+  <si>
+    <t>spac3</t>
+  </si>
+  <si>
+    <t>spac4</t>
+  </si>
+  <si>
+    <t>spac5</t>
+  </si>
+  <si>
     <t>pas1</t>
   </si>
   <si>
+    <t>pas1_spac1_settime0</t>
+  </si>
+  <si>
+    <t>pas1_spac1_settime1</t>
+  </si>
+  <si>
+    <t>pas1_spac2_settime0</t>
+  </si>
+  <si>
+    <t>pas1_spac2_settime1</t>
+  </si>
+  <si>
+    <t>pas1_spac3_settime0</t>
+  </si>
+  <si>
+    <t>pas1_spac3_settime1</t>
+  </si>
+  <si>
+    <t>pas1_spac4_settime0</t>
+  </si>
+  <si>
+    <t>pas1_spac4_settime1</t>
+  </si>
+  <si>
+    <t>pas1_spac5_settime0</t>
+  </si>
+  <si>
+    <t>pas1_spac5_settime1</t>
+  </si>
+  <si>
+    <t>pas2_spac0_settime0</t>
+  </si>
+  <si>
     <t>pas2</t>
   </si>
   <si>
+    <t>pas2_spac0_settime1</t>
+  </si>
+  <si>
+    <t>pas2_spac1_settime0</t>
+  </si>
+  <si>
+    <t>pas2_spac1_settime1</t>
+  </si>
+  <si>
+    <t>pas2_spac2_settime0</t>
+  </si>
+  <si>
+    <t>pas2_spac2_settime1</t>
+  </si>
+  <si>
+    <t>pas2_spac3_settime0</t>
+  </si>
+  <si>
+    <t>pas2_spac3_settime1</t>
+  </si>
+  <si>
+    <t>pas2_spac4_settime0</t>
+  </si>
+  <si>
+    <t>pas2_spac4_settime1</t>
+  </si>
+  <si>
+    <t>pas2_spac5_settime0</t>
+  </si>
+  <si>
+    <t>pas2_spac5_settime1</t>
+  </si>
+  <si>
+    <t>pas3_spac0_settime0</t>
+  </si>
+  <si>
     <t>pas3</t>
   </si>
   <si>
+    <t>pas3_spac0_settime1</t>
+  </si>
+  <si>
+    <t>pas3_spac1_settime0</t>
+  </si>
+  <si>
+    <t>pas3_spac1_settime1</t>
+  </si>
+  <si>
+    <t>pas3_spac2_settime0</t>
+  </si>
+  <si>
+    <t>pas3_spac2_settime1</t>
+  </si>
+  <si>
+    <t>pas3_spac3_settime0</t>
+  </si>
+  <si>
+    <t>pas3_spac3_settime1</t>
+  </si>
+  <si>
+    <t>pas3_spac4_settime0</t>
+  </si>
+  <si>
+    <t>pas3_spac4_settime1</t>
+  </si>
+  <si>
+    <t>pas3_spac5_settime0</t>
+  </si>
+  <si>
+    <t>pas3_spac5_settime1</t>
+  </si>
+  <si>
+    <t>pas4_spac0_settime0</t>
+  </si>
+  <si>
     <t>pas4</t>
   </si>
   <si>
+    <t>pas4_spac0_settime1</t>
+  </si>
+  <si>
+    <t>pas4_spac1_settime0</t>
+  </si>
+  <si>
+    <t>pas4_spac1_settime1</t>
+  </si>
+  <si>
+    <t>pas4_spac2_settime0</t>
+  </si>
+  <si>
+    <t>pas4_spac2_settime1</t>
+  </si>
+  <si>
+    <t>pas4_spac3_settime0</t>
+  </si>
+  <si>
+    <t>pas4_spac3_settime1</t>
+  </si>
+  <si>
+    <t>pas4_spac4_settime0</t>
+  </si>
+  <si>
+    <t>pas4_spac4_settime1</t>
+  </si>
+  <si>
+    <t>pas4_spac5_settime0</t>
+  </si>
+  <si>
+    <t>pas4_spac5_settime1</t>
+  </si>
+  <si>
+    <t>pas5_spac0_settime0</t>
+  </si>
+  <si>
     <t>pas5</t>
   </si>
   <si>
-    <t>pas0_wdth0_settime0</t>
-  </si>
-  <si>
-    <t>wdth0</t>
-  </si>
-  <si>
-    <t>pas0_wdth2_settime1</t>
-  </si>
-  <si>
-    <t>wdth2</t>
-  </si>
-  <si>
-    <t>pas1_wdth0_settime0</t>
-  </si>
-  <si>
-    <t>pas1_wdth3_settime1</t>
-  </si>
-  <si>
-    <t>wdth3</t>
-  </si>
-  <si>
-    <t>pas2_wdth0_settime0</t>
-  </si>
-  <si>
-    <t>pas2_wdth4_settime1</t>
-  </si>
-  <si>
-    <t>wdth4</t>
-  </si>
-  <si>
-    <t>pas3_wdth0_settime0</t>
-  </si>
-  <si>
-    <t>pas3_wdth5_settime1</t>
-  </si>
-  <si>
-    <t>wdth5</t>
-  </si>
-  <si>
-    <t>pas4_wdth0_settime0</t>
-  </si>
-  <si>
-    <t>pas4_wdth0_settime1</t>
-  </si>
-  <si>
-    <t>pas5_wdth0_settime0</t>
-  </si>
-  <si>
-    <t>pas5_wdth1_settime1</t>
-  </si>
-  <si>
-    <t>wdth1</t>
-  </si>
-  <si>
-    <t>width_cb_indx</t>
-  </si>
-  <si>
-    <t>width_cb</t>
-  </si>
-  <si>
-    <t>test023A</t>
-  </si>
-  <si>
-    <t>test040B</t>
-  </si>
-  <si>
-    <t>test023C</t>
-  </si>
-  <si>
-    <t>test054D</t>
-  </si>
-  <si>
-    <t>test065E</t>
-  </si>
-  <si>
-    <t>test066F</t>
-  </si>
-  <si>
-    <t>test077G</t>
-  </si>
-  <si>
-    <t>test088A</t>
-  </si>
-  <si>
-    <t>test099B</t>
-  </si>
-  <si>
-    <t>test019C</t>
-  </si>
-  <si>
-    <t>test044D</t>
-  </si>
-  <si>
-    <t>test055E</t>
+    <t>pas5_spac0_settime1</t>
+  </si>
+  <si>
+    <t>pas5_spac1_settime0</t>
+  </si>
+  <si>
+    <t>pas5_spac1_settime1</t>
+  </si>
+  <si>
+    <t>pas5_spac2_settime0</t>
+  </si>
+  <si>
+    <t>pas5_spac2_settime1</t>
+  </si>
+  <si>
+    <t>pas5_spac3_settime0</t>
+  </si>
+  <si>
+    <t>pas5_spac3_settime1</t>
+  </si>
+  <si>
+    <t>pas5_spac4_settime0</t>
+  </si>
+  <si>
+    <t>pas5_spac4_settime1</t>
+  </si>
+  <si>
+    <t>pas5_spac5_settime0</t>
+  </si>
+  <si>
+    <t>pas5_spac5_settime1</t>
+  </si>
+  <si>
+    <t>id15</t>
+  </si>
+  <si>
+    <t>7815huhelmerG</t>
+  </si>
+  <si>
+    <t>id16</t>
+  </si>
+  <si>
+    <t>7815olsweatG</t>
+  </si>
+  <si>
+    <t>id17</t>
+  </si>
+  <si>
+    <t>7815cablackwelderG</t>
+  </si>
+  <si>
+    <t>id18</t>
+  </si>
+  <si>
+    <t>7815ashilgersonG</t>
+  </si>
+  <si>
+    <t>id19</t>
+  </si>
+  <si>
+    <t>7815zareeseD</t>
+  </si>
+  <si>
+    <t>id20</t>
+  </si>
+  <si>
+    <t>7815caperryE</t>
+  </si>
+  <si>
+    <t>id21</t>
+  </si>
+  <si>
+    <t>7815sibellamyC</t>
+  </si>
+  <si>
+    <t>id22</t>
+  </si>
+  <si>
+    <t>7815mamillerG</t>
+  </si>
+  <si>
+    <t>id23</t>
+  </si>
+  <si>
+    <t>7815albryantG</t>
+  </si>
+  <si>
+    <t>id24</t>
+  </si>
+  <si>
+    <t>7815trjohnsonG</t>
+  </si>
+  <si>
+    <t>id25</t>
+  </si>
+  <si>
+    <t>7815rhmcclellandG</t>
+  </si>
+  <si>
+    <t>id26</t>
+  </si>
+  <si>
+    <t>7815jsmitchelG</t>
+  </si>
+  <si>
+    <t>id27</t>
+  </si>
+  <si>
+    <t>7815tyjohnsonG</t>
+  </si>
+  <si>
+    <t>id28</t>
+  </si>
+  <si>
+    <t>7815jajamesG</t>
+  </si>
+  <si>
+    <t>id29</t>
+  </si>
+  <si>
+    <t>7815jamulberryE</t>
+  </si>
+  <si>
+    <t>id30</t>
+  </si>
+  <si>
+    <t>7815japerryF</t>
+  </si>
+  <si>
+    <t>id31</t>
+  </si>
+  <si>
+    <t>7815lastatenE</t>
+  </si>
+  <si>
+    <t>id32</t>
+  </si>
+  <si>
+    <t>7815jelindseyG</t>
+  </si>
+  <si>
+    <t>id33</t>
+  </si>
+  <si>
+    <t>7815adowensG</t>
+  </si>
+  <si>
+    <t>id34</t>
+  </si>
+  <si>
+    <t>7815kejamesG</t>
+  </si>
+  <si>
+    <t>id35</t>
+  </si>
+  <si>
+    <t>7815zahendersonG</t>
+  </si>
+  <si>
+    <t>id36</t>
+  </si>
+  <si>
+    <t>7815phflorenceG</t>
+  </si>
+  <si>
+    <t>id37</t>
+  </si>
+  <si>
+    <t>7815deroseD</t>
+  </si>
+  <si>
+    <t>id38</t>
+  </si>
+  <si>
+    <t>81116zovillanuevaD</t>
+  </si>
+  <si>
+    <t>id39</t>
+  </si>
+  <si>
+    <t>81116tomazzawiD</t>
+  </si>
+  <si>
+    <t>id40</t>
+  </si>
+  <si>
+    <t>81116shambardD</t>
+  </si>
+  <si>
+    <t>id41</t>
+  </si>
+  <si>
+    <t>81116tapayneD</t>
+  </si>
+  <si>
+    <t>id42</t>
+  </si>
+  <si>
+    <t>81116roblessiD</t>
+  </si>
+  <si>
+    <t>id43</t>
+  </si>
+  <si>
+    <t>81116raalvarezD</t>
+  </si>
+  <si>
+    <t>id44</t>
+  </si>
+  <si>
+    <t>81116naamusquivarD</t>
+  </si>
+  <si>
+    <t>id45</t>
+  </si>
+  <si>
+    <t>81116grjarquinD</t>
+  </si>
+  <si>
+    <t>id46</t>
+  </si>
+  <si>
+    <t>81116midelaosaD</t>
+  </si>
+  <si>
+    <t>id47</t>
+  </si>
+  <si>
+    <t>81116joabreudelgadoD</t>
+  </si>
+  <si>
+    <t>id48</t>
+  </si>
+  <si>
+    <t>81116altranD</t>
+  </si>
+  <si>
+    <t>id49</t>
+  </si>
+  <si>
+    <t>81116anriveraD</t>
+  </si>
+  <si>
+    <t>id50</t>
+  </si>
+  <si>
+    <t>81116gisantosD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,16 +552,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -304,37 +581,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF8696B"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB84"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8E082"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB1D580"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8ACA7E"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF63BE7B"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -470,7 +747,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -499,27 +776,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,16 +1127,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="9" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="9" customFormat="1" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -874,36 +1170,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="P1" s="6"/>
       <c r="Q1" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="R1" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
@@ -916,576 +1212,1818 @@
       <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="19">
+        <v>7</v>
+      </c>
+      <c r="D2" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="19">
+        <v>7</v>
+      </c>
+      <c r="D3" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="19">
+        <v>7</v>
+      </c>
+      <c r="D4" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="19">
+        <v>7</v>
+      </c>
+      <c r="D5" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="19">
+        <v>7</v>
+      </c>
+      <c r="D6" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>3</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="19">
+        <v>7</v>
+      </c>
+      <c r="D7" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="19">
+        <v>7</v>
+      </c>
+      <c r="D8" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16">
+        <v>4</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="19">
+        <v>7</v>
+      </c>
+      <c r="D9" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="19">
+        <v>7</v>
+      </c>
+      <c r="D10" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="19">
+        <v>7</v>
+      </c>
+      <c r="D11" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13">
+        <v>1</v>
+      </c>
+      <c r="G11" s="17">
+        <v>5</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="19">
+        <v>7</v>
+      </c>
+      <c r="D12" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="19">
+        <v>7</v>
+      </c>
+      <c r="D13" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="19">
+        <v>7</v>
+      </c>
+      <c r="D14" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="19">
+        <v>7</v>
+      </c>
+      <c r="D15" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="19">
+        <v>7</v>
+      </c>
+      <c r="D16" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2</v>
+      </c>
+      <c r="G16" s="14">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="19">
+        <v>7</v>
+      </c>
+      <c r="D17" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>2</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="19">
+        <v>7</v>
+      </c>
+      <c r="D18" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="14">
+        <v>2</v>
+      </c>
+      <c r="G18" s="15">
+        <v>3</v>
+      </c>
+      <c r="H18" s="12">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="19">
+        <v>7</v>
+      </c>
+      <c r="D19" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2</v>
+      </c>
+      <c r="G19" s="15">
+        <v>3</v>
+      </c>
+      <c r="H19" s="13">
+        <v>1</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="19">
+        <v>7</v>
+      </c>
+      <c r="D20" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="14">
+        <v>2</v>
+      </c>
+      <c r="G20" s="16">
+        <v>4</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="19">
+        <v>7</v>
+      </c>
+      <c r="D21" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="14">
+        <v>2</v>
+      </c>
+      <c r="G21" s="16">
+        <v>4</v>
+      </c>
+      <c r="H21" s="13">
+        <v>1</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="19">
+        <v>7</v>
+      </c>
+      <c r="D22" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="14">
+        <v>2</v>
+      </c>
+      <c r="G22" s="17">
+        <v>5</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="19">
+        <v>7</v>
+      </c>
+      <c r="D23" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="14">
+        <v>2</v>
+      </c>
+      <c r="G23" s="17">
+        <v>5</v>
+      </c>
+      <c r="H23" s="13">
+        <v>1</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" s="19">
+        <v>7</v>
+      </c>
+      <c r="D24" s="19">
+        <v>7815</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="15">
+        <v>3</v>
+      </c>
+      <c r="G24" s="12">
+        <v>0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="19">
+        <v>8</v>
+      </c>
+      <c r="D25" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="15">
+        <v>3</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="19">
+        <v>8</v>
+      </c>
+      <c r="D26" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="15">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="19">
+        <v>8</v>
+      </c>
+      <c r="D27" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="15">
+        <v>3</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="19">
+        <v>8</v>
+      </c>
+      <c r="D28" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="15">
+        <v>3</v>
+      </c>
+      <c r="G28" s="14">
+        <v>2</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="19">
+        <v>8</v>
+      </c>
+      <c r="D29" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="15">
+        <v>3</v>
+      </c>
+      <c r="G29" s="14">
+        <v>2</v>
+      </c>
+      <c r="H29" s="13">
+        <v>1</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="19">
+        <v>8</v>
+      </c>
+      <c r="D30" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="15">
+        <v>3</v>
+      </c>
+      <c r="G30" s="15">
+        <v>3</v>
+      </c>
+      <c r="H30" s="12">
+        <v>0</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="19">
+        <v>8</v>
+      </c>
+      <c r="D31" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="15">
+        <v>3</v>
+      </c>
+      <c r="G31" s="15">
+        <v>3</v>
+      </c>
+      <c r="H31" s="13">
+        <v>1</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="19">
+        <v>8</v>
+      </c>
+      <c r="D32" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="11">
+      <c r="F32" s="15">
+        <v>3</v>
+      </c>
+      <c r="G32" s="16">
+        <v>4</v>
+      </c>
+      <c r="H32" s="12">
         <v>0</v>
       </c>
-      <c r="G2" s="11">
+      <c r="I32" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="19">
+        <v>8</v>
+      </c>
+      <c r="D33" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="15">
+        <v>3</v>
+      </c>
+      <c r="G33" s="16">
+        <v>4</v>
+      </c>
+      <c r="H33" s="13">
+        <v>1</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="19">
+        <v>8</v>
+      </c>
+      <c r="D34" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="15">
+        <v>3</v>
+      </c>
+      <c r="G34" s="17">
+        <v>5</v>
+      </c>
+      <c r="H34" s="12">
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="I34" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="19">
+        <v>8</v>
+      </c>
+      <c r="D35" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F35" s="15">
+        <v>3</v>
+      </c>
+      <c r="G35" s="17">
+        <v>5</v>
+      </c>
+      <c r="H35" s="13">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="19">
+        <v>8</v>
+      </c>
+      <c r="D36" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="16">
+        <v>4</v>
+      </c>
+      <c r="G36" s="12">
         <v>0</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="H36" s="12">
         <v>0</v>
       </c>
-      <c r="G3" s="11">
+      <c r="I36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="19">
+        <v>8</v>
+      </c>
+      <c r="D37" s="19">
+        <v>81116</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="16">
+        <v>4</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K37" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="E38" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" s="16">
+        <v>4</v>
+      </c>
+      <c r="G38" s="13">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="E39" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="16">
+        <v>4</v>
+      </c>
+      <c r="G39" s="13">
+        <v>1</v>
+      </c>
+      <c r="H39" s="13">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="10"/>
+      <c r="E40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="16">
+        <v>4</v>
+      </c>
+      <c r="G40" s="14">
         <v>2</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H40" s="12">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="E41" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="16">
+        <v>4</v>
+      </c>
+      <c r="G41" s="14">
+        <v>2</v>
+      </c>
+      <c r="H41" s="13">
         <v>1</v>
       </c>
-      <c r="I3" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="I41" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="E42" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="16">
+        <v>4</v>
+      </c>
+      <c r="G42" s="15">
+        <v>3</v>
+      </c>
+      <c r="H42" s="12">
+        <v>0</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="10"/>
+      <c r="E43" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="16">
+        <v>4</v>
+      </c>
+      <c r="G43" s="15">
+        <v>3</v>
+      </c>
+      <c r="H43" s="13">
+        <v>1</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="E44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="16">
+        <v>4</v>
+      </c>
+      <c r="G44" s="16">
+        <v>4</v>
+      </c>
+      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="E45" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="16">
+        <v>4</v>
+      </c>
+      <c r="G45" s="16">
+        <v>4</v>
+      </c>
+      <c r="H45" s="13">
+        <v>1</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="10"/>
+      <c r="E46" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="16">
+        <v>4</v>
+      </c>
+      <c r="G46" s="17">
+        <v>5</v>
+      </c>
+      <c r="H46" s="12">
+        <v>0</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="E47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="16">
+        <v>4</v>
+      </c>
+      <c r="G47" s="17">
+        <v>5</v>
+      </c>
+      <c r="H47" s="13">
+        <v>1</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="E48" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="17">
+        <v>5</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0</v>
+      </c>
+      <c r="H48" s="12">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="K48" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="10"/>
+      <c r="E49" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="17">
+        <v>5</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
         <v>1</v>
       </c>
-      <c r="G4" s="11">
+      <c r="I49" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K49" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="E50" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F50" s="17">
+        <v>5</v>
+      </c>
+      <c r="G50" s="13">
+        <v>1</v>
+      </c>
+      <c r="H50" s="12">
         <v>0</v>
       </c>
-      <c r="H4" s="11">
+      <c r="I50" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="E51" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="17">
+        <v>5</v>
+      </c>
+      <c r="G51" s="13">
+        <v>1</v>
+      </c>
+      <c r="H51" s="13">
+        <v>1</v>
+      </c>
+      <c r="I51" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="E52" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" s="17">
+        <v>5</v>
+      </c>
+      <c r="G52" s="14">
+        <v>2</v>
+      </c>
+      <c r="H52" s="12">
         <v>0</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="I52" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="12">
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="E53" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="17">
+        <v>5</v>
+      </c>
+      <c r="G53" s="14">
+        <v>2</v>
+      </c>
+      <c r="H53" s="13">
         <v>1</v>
       </c>
-      <c r="G5" s="11">
+      <c r="I53" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="E54" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="17">
+        <v>5</v>
+      </c>
+      <c r="G54" s="15">
         <v>3</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H54" s="12">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="E55" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F55" s="17">
+        <v>5</v>
+      </c>
+      <c r="G55" s="15">
+        <v>3</v>
+      </c>
+      <c r="H55" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="I55" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11">
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="E56" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="17">
+        <v>5</v>
+      </c>
+      <c r="G56" s="16">
+        <v>4</v>
+      </c>
+      <c r="H56" s="12">
         <v>0</v>
       </c>
-      <c r="H6" s="11">
+      <c r="I56" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="E57" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="17">
+        <v>5</v>
+      </c>
+      <c r="G57" s="16">
+        <v>4</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="E58" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="17">
+        <v>5</v>
+      </c>
+      <c r="G58" s="17">
+        <v>5</v>
+      </c>
+      <c r="H58" s="12">
         <v>0</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="13">
-        <v>2</v>
-      </c>
-      <c r="G7" s="11">
-        <v>4</v>
-      </c>
-      <c r="H7" s="12">
+      <c r="I58" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J58" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="E59" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F59" s="17">
+        <v>5</v>
+      </c>
+      <c r="G59" s="17">
+        <v>5</v>
+      </c>
+      <c r="H59" s="13">
         <v>1</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="14">
-        <v>3</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="14">
-        <v>3</v>
-      </c>
-      <c r="G9" s="11">
-        <v>5</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="15">
-        <v>4</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="I59" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J59" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="15">
-        <v>4</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="16">
-        <v>5</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="16">
-        <v>5</v>
-      </c>
-      <c r="G13" s="11">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="K59" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -1557,47 +3095,47 @@
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1"/>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2"/>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2"/>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2"/>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2"/>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2"/>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2"/>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2"/>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2"/>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
@@ -3664,52 +5202,9 @@
       <c r="A985" s="2"/>
     </row>
     <row r="986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A986" s="2"/>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A987" s="2"/>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A988" s="2"/>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A989" s="2"/>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A990" s="2"/>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A991" s="2"/>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A992" s="2"/>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A993" s="2"/>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A994" s="2"/>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A995" s="2"/>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A996" s="2"/>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A997" s="2"/>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A998" s="2"/>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A999" s="2"/>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="3"/>
+      <c r="A986" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
